--- a/data/trans_orig/P64S_2023_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P64S_2023_R-Dificultad-trans_orig.xlsx
@@ -838,16 +838,16 @@
         <v>750</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8480</v>
+        <v>8762</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01595440693282314</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004219284518944925</v>
+        <v>0.004222550749710271</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04772752442519373</v>
+        <v>0.04931478589131424</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -856,19 +856,19 @@
         <v>5290</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2660</v>
+        <v>2443</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10120</v>
+        <v>10377</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03101584319591025</v>
+        <v>0.03101584319591026</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01559385977219187</v>
+        <v>0.01432127556235217</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05933518914795401</v>
+        <v>0.060842547929524</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -877,19 +877,19 @@
         <v>8124</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4432</v>
+        <v>4152</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14228</v>
+        <v>15776</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02333123106414675</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01272694186943369</v>
+        <v>0.01192433567105122</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04085862243441554</v>
+        <v>0.04530551567949354</v>
       </c>
     </row>
     <row r="7">
@@ -906,19 +906,19 @@
         <v>16380</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8934</v>
+        <v>9153</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27162</v>
+        <v>26859</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09219496725990604</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05028485885233137</v>
+        <v>0.05151813300076237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1528810550991427</v>
+        <v>0.1511735155819156</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -927,19 +927,19 @@
         <v>15554</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9834</v>
+        <v>9467</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23927</v>
+        <v>23427</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09119669220701468</v>
+        <v>0.09119669220701469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05765946790915594</v>
+        <v>0.05550702211410361</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1402899265183306</v>
+        <v>0.1373608278953142</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -948,19 +948,19 @@
         <v>31934</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22687</v>
+        <v>22109</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45612</v>
+        <v>45788</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09170602985903445</v>
+        <v>0.09170602985903442</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06515165381727071</v>
+        <v>0.06349084751157372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1309837055138146</v>
+        <v>0.1314915243978738</v>
       </c>
     </row>
     <row r="8">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6809</v>
+        <v>6866</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006649293457223059</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03832616847953916</v>
+        <v>0.03864741338729692</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1186,19 +1186,19 @@
         <v>5596</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2257</v>
+        <v>2134</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13511</v>
+        <v>13141</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03280863399314263</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01323147253616587</v>
+        <v>0.01251276829380758</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07921921775596814</v>
+        <v>0.07704644123795786</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1207,19 +1207,19 @@
         <v>6777</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14933</v>
+        <v>14742</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01946167410632658</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008234167078497173</v>
+        <v>0.008230878332974085</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04288225198728699</v>
+        <v>0.0423342623149471</v>
       </c>
     </row>
     <row r="13">
@@ -1283,19 +1283,19 @@
         <v>6304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16908</v>
+        <v>17748</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03548304439097509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01249268808486353</v>
+        <v>0.01260488842483002</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09516841750917931</v>
+        <v>0.0998925130755203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1304,19 +1304,19 @@
         <v>5004</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2128</v>
+        <v>2041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10082</v>
+        <v>10019</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02934108467661962</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01247515125938173</v>
+        <v>0.01196584165811725</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05911393594456749</v>
+        <v>0.05874277289740588</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -1325,19 +1325,19 @@
         <v>11308</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5578</v>
+        <v>5708</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22040</v>
+        <v>21722</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03247482154668254</v>
+        <v>0.03247482154668253</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01601828041787459</v>
+        <v>0.01639150305049357</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06329227897962014</v>
+        <v>0.06238093889494391</v>
       </c>
     </row>
     <row r="15">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3907</v>
+        <v>4761</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.004878628200069803</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02199099366970401</v>
+        <v>0.02679452192942127</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8134</v>
+        <v>7304</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.007829106510796784</v>
+        <v>0.007829106510796786</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04768963023344139</v>
+        <v>0.04282536432044132</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1399,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7403</v>
+        <v>8210</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.0063237201037457</v>
+        <v>0.006323720103745699</v>
       </c>
       <c r="V15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02125860312962924</v>
+        <v>0.02357602957215608</v>
       </c>
     </row>
     <row r="16">
@@ -1425,19 +1425,19 @@
         <v>12308</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6651</v>
+        <v>6769</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20093</v>
+        <v>20331</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06927277591870372</v>
+        <v>0.06927277591870369</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03743387707219681</v>
+        <v>0.03810066664703726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1130913000975497</v>
+        <v>0.1144334143755302</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1446,19 +1446,19 @@
         <v>15050</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9198</v>
+        <v>9116</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23904</v>
+        <v>23127</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08824463666521558</v>
+        <v>0.08824463666521559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05392928148646088</v>
+        <v>0.0534520139540454</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1401579285259989</v>
+        <v>0.1356024107785606</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -1467,19 +1467,19 @@
         <v>27358</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18629</v>
+        <v>19181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38137</v>
+        <v>39136</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07856485654941869</v>
+        <v>0.07856485654941868</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05349852486074345</v>
+        <v>0.05508122557285689</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.109519115002031</v>
+        <v>0.1123873009796608</v>
       </c>
     </row>
     <row r="17">
@@ -1496,19 +1496,19 @@
         <v>101675</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84832</v>
+        <v>85463</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117349</v>
+        <v>116478</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5722733961044107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4774699277180859</v>
+        <v>0.481021909785601</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6604936556005612</v>
+        <v>0.6555889565572911</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>77</v>
@@ -1517,19 +1517,19 @@
         <v>62025</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49407</v>
+        <v>50495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74863</v>
+        <v>73994</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3636721889057352</v>
+        <v>0.3636721889057353</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2896896437067064</v>
+        <v>0.2960682659475163</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4389451758560651</v>
+        <v>0.4338472556815628</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>162</v>
@@ -1538,19 +1538,19 @@
         <v>163701</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143769</v>
+        <v>143506</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>182601</v>
+        <v>181683</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4701042276262501</v>
+        <v>0.47010422762625</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4128635319938646</v>
+        <v>0.4121101934314931</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5243800909603726</v>
+        <v>0.5217441176320581</v>
       </c>
     </row>
     <row r="18">
@@ -1567,19 +1567,19 @@
         <v>9026</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2270</v>
+        <v>2362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25663</v>
+        <v>24786</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05080223452972683</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01277722148585853</v>
+        <v>0.01329157058825299</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1444404891557577</v>
+        <v>0.1395090855333484</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1591,16 +1591,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5794</v>
+        <v>5824</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.009817827319033464</v>
+        <v>0.009817827319033466</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0339724466603818</v>
+        <v>0.03414530778166001</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -1609,19 +1609,19 @@
         <v>10700</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3491</v>
+        <v>4236</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26666</v>
+        <v>30297</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.0307287993779409</v>
+        <v>0.03072879937794089</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01002636896826653</v>
+        <v>0.01216549008500222</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07657745847156018</v>
+        <v>0.08700529370332785</v>
       </c>
     </row>
     <row r="19">
@@ -1638,19 +1638,19 @@
         <v>27093</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17012</v>
+        <v>17377</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40606</v>
+        <v>39309</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1524912532061617</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09575212662528562</v>
+        <v>0.09780314778129932</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2285473959299551</v>
+        <v>0.2212509484233874</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -1659,19 +1659,19 @@
         <v>59024</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47108</v>
+        <v>47837</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72339</v>
+        <v>72421</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3460739865265317</v>
+        <v>0.3460739865265318</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2762093962240323</v>
+        <v>0.2804842512548525</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4241454947259053</v>
+        <v>0.4246257641751807</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -1680,19 +1680,19 @@
         <v>86117</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71827</v>
+        <v>69219</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>104135</v>
+        <v>104658</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2473046397664544</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2062683932349458</v>
+        <v>0.1987769086964983</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2990469895969931</v>
+        <v>0.3005485167987854</v>
       </c>
     </row>
     <row r="20">
@@ -1878,19 +1878,19 @@
         <v>26541</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18127</v>
+        <v>16946</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37718</v>
+        <v>37446</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0520009617610095</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03551582744746164</v>
+        <v>0.03320182701109627</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07390068298381967</v>
+        <v>0.07336759827395301</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>32</v>
@@ -1899,19 +1899,19 @@
         <v>23554</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16012</v>
+        <v>16516</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>33103</v>
+        <v>33378</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06541007079975568</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0444648499725655</v>
+        <v>0.04586534198208356</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09192773707432818</v>
+        <v>0.09269159855732577</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>60</v>
@@ -1920,19 +1920,19 @@
         <v>50094</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>37911</v>
+        <v>37091</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>65126</v>
+        <v>63324</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.05754792980025476</v>
+        <v>0.05754792980025478</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04355139257907852</v>
+        <v>0.04260947484920036</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0748154956879898</v>
+        <v>0.072746277970441</v>
       </c>
     </row>
     <row r="24">
@@ -1949,19 +1949,19 @@
         <v>19072</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11625</v>
+        <v>11618</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30224</v>
+        <v>29814</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03736836779486096</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02277693614271797</v>
+        <v>0.02276317025522294</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0592180635631791</v>
+        <v>0.0584147010220132</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -1970,19 +1970,19 @@
         <v>24413</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16060</v>
+        <v>15908</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34791</v>
+        <v>35527</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06779736471723885</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04459992715004504</v>
+        <v>0.04417714945088038</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09661647452324679</v>
+        <v>0.09865989666437047</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>44</v>
@@ -1991,19 +1991,19 @@
         <v>43486</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>31593</v>
+        <v>31730</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>60071</v>
+        <v>57712</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04995598065616302</v>
+        <v>0.04995598065616304</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03629414129400266</v>
+        <v>0.03645155786673922</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06900905577501946</v>
+        <v>0.06629850145379007</v>
       </c>
     </row>
     <row r="25">
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8512</v>
+        <v>7731</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003699975056686752</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01667837198218484</v>
+        <v>0.01514667590674813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2057,16 +2057,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10804</v>
+        <v>10442</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.002169400331241366</v>
+        <v>0.002169400331241367</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01241203572074643</v>
+        <v>0.01199587366556687</v>
       </c>
     </row>
     <row r="26">
@@ -2224,19 +2224,19 @@
         <v>5411</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1111</v>
+        <v>1131</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17755</v>
+        <v>15879</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01060131594676013</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002176478598335832</v>
+        <v>0.002216298996435084</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03478679788827339</v>
+        <v>0.03111200182151909</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2245,19 +2245,19 @@
         <v>5100</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2241</v>
+        <v>2101</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9773</v>
+        <v>9537</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01416421482635233</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00622247862130397</v>
+        <v>0.005835149719534373</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02713924321220133</v>
+        <v>0.02648609977071285</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -2266,19 +2266,19 @@
         <v>10511</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5410</v>
+        <v>5177</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21595</v>
+        <v>21962</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01207518614611893</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006214392790938651</v>
+        <v>0.005947639703465525</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02480811233395935</v>
+        <v>0.02522978015973821</v>
       </c>
     </row>
     <row r="30">
@@ -2295,19 +2295,19 @@
         <v>4426</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1139</v>
+        <v>1101</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12662</v>
+        <v>12768</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008671791848388944</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002230662166417383</v>
+        <v>0.002156898027824726</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02480858964997832</v>
+        <v>0.02501596987398871</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2316,19 +2316,19 @@
         <v>3216</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9588</v>
+        <v>9625</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.008931895290642868</v>
+        <v>0.008931895290642866</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001765793941227817</v>
+        <v>0.001791031100852426</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02662719484393811</v>
+        <v>0.02672844289204161</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -2337,19 +2337,19 @@
         <v>7642</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3176</v>
+        <v>2908</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16390</v>
+        <v>16628</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.008779389264213604</v>
+        <v>0.008779389264213606</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003648018017477029</v>
+        <v>0.003340324626847808</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01882829351531519</v>
+        <v>0.01910163300320289</v>
       </c>
     </row>
     <row r="31">
@@ -2366,19 +2366,19 @@
         <v>15214</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7470</v>
+        <v>7750</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27624</v>
+        <v>25633</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02980909212841521</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01463674978949994</v>
+        <v>0.0151845620236121</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05412358837939132</v>
+        <v>0.05022260332244479</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -2387,19 +2387,19 @@
         <v>9539</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5221</v>
+        <v>5212</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17226</v>
+        <v>18626</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0264911253022053</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01449943309263</v>
+        <v>0.01447373556503843</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04783697360417248</v>
+        <v>0.05172414430627625</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>24</v>
@@ -2408,19 +2408,19 @@
         <v>24753</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15810</v>
+        <v>15411</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37605</v>
+        <v>38134</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.02843654337166474</v>
+        <v>0.02843654337166475</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.018161791378758</v>
+        <v>0.01770349668436587</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04319988046964423</v>
+        <v>0.04380736518151145</v>
       </c>
     </row>
     <row r="32">
@@ -2437,19 +2437,19 @@
         <v>3009</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8551</v>
+        <v>8622</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005895929031337625</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001437614256158151</v>
+        <v>0.001433494161452805</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01675423377940522</v>
+        <v>0.01689354014470209</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6377</v>
+        <v>5746</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004968824409740093</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01770868939634115</v>
+        <v>0.01595615271665683</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2479,19 +2479,19 @@
         <v>4798</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1730</v>
+        <v>1461</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>11665</v>
+        <v>10537</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.005512412148136936</v>
+        <v>0.005512412148136938</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001987246124285139</v>
+        <v>0.001678381668347897</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01340102921572853</v>
+        <v>0.01210531271562998</v>
       </c>
     </row>
     <row r="33">
@@ -2508,19 +2508,19 @@
         <v>16039</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>8287</v>
+        <v>8704</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>27381</v>
+        <v>28616</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03142552414382926</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01623753367794065</v>
+        <v>0.01705300238873636</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05364690794178591</v>
+        <v>0.05606763038300252</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>27</v>
@@ -2529,19 +2529,19 @@
         <v>21925</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>15328</v>
+        <v>14115</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>32081</v>
+        <v>30996</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06088647608137909</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04256699135022721</v>
+        <v>0.03919746668903547</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08909123754849958</v>
+        <v>0.08607666448792364</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>39</v>
@@ -2550,19 +2550,19 @@
         <v>37964</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>26979</v>
+        <v>26773</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>50428</v>
+        <v>52237</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.0436126842549988</v>
+        <v>0.04361268425499881</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03099311921387823</v>
+        <v>0.03075681577738358</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0579313453711799</v>
+        <v>0.0600098345072033</v>
       </c>
     </row>
     <row r="34">
@@ -2579,19 +2579,19 @@
         <v>331238</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>305007</v>
+        <v>306847</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>353630</v>
+        <v>356025</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.6489915587198775</v>
+        <v>0.6489915587198773</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5975986294114766</v>
+        <v>0.6012029225923295</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6928650146191676</v>
+        <v>0.69755843260478</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>220</v>
@@ -2600,19 +2600,19 @@
         <v>171528</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>153090</v>
+        <v>153119</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>185829</v>
+        <v>187677</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4763416143374205</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4251390482177679</v>
+        <v>0.4252207168939985</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5160571674548478</v>
+        <v>0.5211893728930443</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>495</v>
@@ -2621,19 +2621,19 @@
         <v>502765</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>472163</v>
+        <v>471875</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>533867</v>
+        <v>534280</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5775711742111305</v>
+        <v>0.5775711742111307</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5424151021892368</v>
+        <v>0.5420844242841241</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6133008762110638</v>
+        <v>0.6137748625087376</v>
       </c>
     </row>
     <row r="35">
@@ -2650,19 +2650,19 @@
         <v>7378</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2334</v>
+        <v>2234</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19306</v>
+        <v>19438</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01445661792610099</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004573184249376536</v>
+        <v>0.004376743858961927</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03782539391049721</v>
+        <v>0.03808377759111797</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2671,19 +2671,19 @@
         <v>2513</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6992</v>
+        <v>7430</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.006978307493607398</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001957713982829605</v>
+        <v>0.001972359586894463</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01941644787350388</v>
+        <v>0.0206326447297894</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2692,19 +2692,19 @@
         <v>9891</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4091</v>
+        <v>3901</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>22280</v>
+        <v>21520</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.01136305303400169</v>
+        <v>0.0113630530340017</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004699490537323056</v>
+        <v>0.004481153950334328</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02559550274018767</v>
+        <v>0.02472250157534358</v>
       </c>
     </row>
     <row r="36">
@@ -2721,19 +2721,19 @@
         <v>80171</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>63102</v>
+        <v>60399</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>104400</v>
+        <v>100715</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1570788656427333</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1236355823764132</v>
+        <v>0.1183388410833671</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2045494125250192</v>
+        <v>0.1973306882208768</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>129</v>
@@ -2742,19 +2742,19 @@
         <v>96516</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>81647</v>
+        <v>82279</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>109991</v>
+        <v>111556</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2680301067416578</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.22673764948563</v>
+        <v>0.2284930493572674</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3054519441804572</v>
+        <v>0.309797803690309</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>189</v>
@@ -2763,19 +2763,19 @@
         <v>176687</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>151987</v>
+        <v>153227</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>204597</v>
+        <v>201329</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2029762467820755</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1746011252670452</v>
+        <v>0.1760259244448718</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2350388562353284</v>
+        <v>0.2312839518726623</v>
       </c>
     </row>
     <row r="37">
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>4652</v>
+        <v>4577</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001485804006921424</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.007479224905366768</v>
+        <v>0.007358262324916072</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>4771</v>
+        <v>4919</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0008320926947273515</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.004296212055892428</v>
+        <v>0.004429341532508079</v>
       </c>
     </row>
     <row r="40">
@@ -2977,19 +2977,19 @@
         <v>32058</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>22185</v>
+        <v>21757</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>44340</v>
+        <v>45904</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05154142594674875</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03566796975878839</v>
+        <v>0.03497956723115837</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07128789222009869</v>
+        <v>0.07380241761862753</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>65</v>
@@ -2998,19 +2998,19 @@
         <v>44125</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>33882</v>
+        <v>34082</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>56228</v>
+        <v>55406</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.09030208691778639</v>
+        <v>0.09030208691778641</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06933829929659677</v>
+        <v>0.06974938047081854</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1150697952463518</v>
+        <v>0.1133882957147597</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>98</v>
@@ -3019,19 +3019,19 @@
         <v>76183</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>62443</v>
+        <v>60824</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>93801</v>
+        <v>92691</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06859500934459363</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0562238270562094</v>
+        <v>0.05476526248704703</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.084457933370648</v>
+        <v>0.0834581826142949</v>
       </c>
     </row>
     <row r="41">
@@ -3048,19 +3048,19 @@
         <v>14102</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7384</v>
+        <v>7337</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24017</v>
+        <v>24035</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0226721772313198</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01187169237251652</v>
+        <v>0.01179558307618702</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03861320392820436</v>
+        <v>0.03864273952507927</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>17</v>
@@ -3069,19 +3069,19 @@
         <v>12585</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7986</v>
+        <v>7334</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>19942</v>
+        <v>19539</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02575552824906024</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01634407411182647</v>
+        <v>0.01500912674042819</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04081073050109334</v>
+        <v>0.03998696769103624</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>29</v>
@@ -3090,19 +3090,19 @@
         <v>26687</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>17675</v>
+        <v>18193</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>38445</v>
+        <v>39825</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02402876358481765</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01591466820540966</v>
+        <v>0.01638057873410496</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03461614413639003</v>
+        <v>0.03585788206869526</v>
       </c>
     </row>
     <row r="42">
@@ -3213,19 +3213,19 @@
         <v>2685</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7248</v>
+        <v>7320</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.004317566329742228</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0</v>
+        <v>0.001382006849132973</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01165255318270209</v>
+        <v>0.0117691920941605</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -3250,16 +3250,16 @@
         <v>858</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>7274</v>
+        <v>7284</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.002417960501683641</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0007729091636039138</v>
+        <v>0.0007726855230411855</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.006549868849651946</v>
+        <v>0.006558429474155409</v>
       </c>
     </row>
     <row r="45">
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>3607</v>
+        <v>3648</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.001480075970930869</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.007381401744139391</v>
+        <v>0.00746563155283583</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>3618</v>
+        <v>3690</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0006511911400137329</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.00325745540424646</v>
+        <v>0.003322600818701575</v>
       </c>
     </row>
     <row r="46">
@@ -3339,19 +3339,19 @@
         <v>20161</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>12595</v>
+        <v>12345</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>31348</v>
+        <v>32048</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03241350109091615</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0202506348090022</v>
+        <v>0.01984802794424681</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05040086431003594</v>
+        <v>0.05152503332732956</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>22</v>
@@ -3360,19 +3360,19 @@
         <v>17516</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>11413</v>
+        <v>10725</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>26264</v>
+        <v>25966</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.03584573210700114</v>
+        <v>0.03584573210700115</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02335630004484635</v>
+        <v>0.02194765801735414</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0537493489708976</v>
+        <v>0.05313957694989942</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>40</v>
@@ -3381,19 +3381,19 @@
         <v>37676</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>27123</v>
+        <v>28120</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>50765</v>
+        <v>51502</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.03392358467584807</v>
+        <v>0.03392358467584808</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02442164717919219</v>
+        <v>0.02531914037023812</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04570819748577958</v>
+        <v>0.04637199385797042</v>
       </c>
     </row>
     <row r="47">
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7310</v>
+        <v>6808</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.003499300045200418</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01175350960539748</v>
+        <v>0.0109458143800187</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3532</v>
+        <v>3527</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.001429398833125854</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.007227878681551602</v>
+        <v>0.007218865342548407</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3</v>
@@ -3452,19 +3452,19 @@
         <v>2875</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>8925</v>
+        <v>8518</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.00258860265095862</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0006282864104834215</v>
+        <v>0.0006312110457432424</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.008035821752732262</v>
+        <v>0.007669627804290985</v>
       </c>
     </row>
     <row r="48">
@@ -3481,19 +3481,19 @@
         <v>23100</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>13965</v>
+        <v>14823</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>35554</v>
+        <v>36265</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.03714017957465392</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02245260707791587</v>
+        <v>0.0238323049001534</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05716289048132443</v>
+        <v>0.05830574558403211</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>31</v>
@@ -3502,19 +3502,19 @@
         <v>23424</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>16184</v>
+        <v>16442</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>33201</v>
+        <v>33127</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.04793672305910272</v>
+        <v>0.04793672305910273</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03312079935903475</v>
+        <v>0.0336476643123451</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.06794498546638206</v>
+        <v>0.06779393229025657</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>50</v>
@@ -3523,19 +3523,19 @@
         <v>46524</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>34273</v>
+        <v>34575</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>62173</v>
+        <v>61904</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.04189035024016663</v>
+        <v>0.04189035024016664</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03085960430066415</v>
+        <v>0.0311313153611643</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.05598073874493448</v>
+        <v>0.05573850000250325</v>
       </c>
     </row>
     <row r="49">
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>7724</v>
+        <v>7588</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.003474193476084845</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01241876472876581</v>
+        <v>0.0122005141913926</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>7713</v>
+        <v>8560</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.00450223775346588</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01578397927265019</v>
+        <v>0.01751781083926662</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>4</v>
@@ -3594,19 +3594,19 @@
         <v>4361</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>10498</v>
+        <v>10624</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.003926503585917456</v>
+        <v>0.003926503585917457</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001184056768388306</v>
+        <v>0.001179262045782411</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.009452485125711224</v>
+        <v>0.009566152527517245</v>
       </c>
     </row>
     <row r="50">
@@ -3623,19 +3623,19 @@
         <v>15541</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>8954</v>
+        <v>8875</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>25537</v>
+        <v>25255</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02498610401952017</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01439516209784428</v>
+        <v>0.01426908896059718</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04105834773119965</v>
+        <v>0.04060365296597793</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>23</v>
@@ -3644,19 +3644,19 @@
         <v>18533</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>11432</v>
+        <v>12043</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>26668</v>
+        <v>28168</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.03792746524945748</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0233952496292154</v>
+        <v>0.02464576684347925</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.05457562065818331</v>
+        <v>0.05764550880050848</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>37</v>
@@ -3665,19 +3665,19 @@
         <v>34074</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>24119</v>
+        <v>24220</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>47712</v>
+        <v>45148</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.03067993321353931</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0217163398501673</v>
+        <v>0.02180792369777786</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04295992537455486</v>
+        <v>0.04065066619724839</v>
       </c>
     </row>
     <row r="51">
@@ -3694,19 +3694,19 @@
         <v>417018</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>392451</v>
+        <v>391313</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>443966</v>
+        <v>440817</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6704679346626682</v>
+        <v>0.6704679346626681</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.6309698452356683</v>
+        <v>0.6291414218600462</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7137950190634925</v>
+        <v>0.7087310674479941</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>351</v>
@@ -3715,19 +3715,19 @@
         <v>253898</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>235320</v>
+        <v>234591</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>272276</v>
+        <v>272845</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.5195992268263958</v>
+        <v>0.5195992268263959</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.4815800692513187</v>
+        <v>0.4800878820949627</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.5572103236105604</v>
+        <v>0.5583733003415018</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>722</v>
@@ -3736,19 +3736,19 @@
         <v>670916</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>638259</v>
+        <v>639721</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>701009</v>
+        <v>705401</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.6040900136789825</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.5746858375309103</v>
+        <v>0.5760015943263842</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.6311855892700428</v>
+        <v>0.6351403130823815</v>
       </c>
     </row>
     <row r="52">
@@ -3765,19 +3765,19 @@
         <v>5465</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2043</v>
+        <v>2028</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>12056</v>
+        <v>11338</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.008786833205295823</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.003284949650026191</v>
+        <v>0.003260740015397245</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01938356684607197</v>
+        <v>0.01822891523127174</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>6</v>
@@ -3786,19 +3786,19 @@
         <v>4655</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>2062</v>
+        <v>1868</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>9811</v>
+        <v>10439</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.009526971596331354</v>
+        <v>0.009526971596331356</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.004219664833784101</v>
+        <v>0.003823295511374976</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02007753188379032</v>
+        <v>0.0213642290011526</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>11</v>
@@ -3807,19 +3807,19 @@
         <v>10121</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>5135</v>
+        <v>5365</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>18124</v>
+        <v>17589</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.00911247295088485</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.004623901154099965</v>
+        <v>0.004830361766455977</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01631862976536987</v>
+        <v>0.01583687193024562</v>
       </c>
     </row>
     <row r="53">
@@ -3836,19 +3836,19 @@
         <v>86589</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>68149</v>
+        <v>69216</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>106328</v>
+        <v>106746</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1392149804109282</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.109567604357345</v>
+        <v>0.111283365276524</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1709507150736645</v>
+        <v>0.1716221794206086</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>152</v>
@@ -3857,19 +3857,19 @@
         <v>110284</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>94178</v>
+        <v>95218</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>127284</v>
+        <v>127401</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2256945534373422</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1927345701838868</v>
+        <v>0.1948633194143582</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2604861474612721</v>
+        <v>0.2607251112987308</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>226</v>
@@ -3878,19 +3878,19 @@
         <v>196873</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>173246</v>
+        <v>173007</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>226393</v>
+        <v>224066</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1772635217378665</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1559902043880476</v>
+        <v>0.1557749297586774</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2038429199902534</v>
+        <v>0.201748302925133</v>
       </c>
     </row>
     <row r="54">
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>7629</v>
+        <v>9603</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.002434341272585852</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.01291841995207663</v>
+        <v>0.01626159840354902</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>0</v>
@@ -4019,16 +4019,16 @@
         <v>0</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>7211</v>
+        <v>8674</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.00136645389074705</v>
+        <v>0.001366453890747049</v>
       </c>
       <c r="V55" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.006853985562631221</v>
+        <v>0.008244865117499403</v>
       </c>
     </row>
     <row r="56">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>4677</v>
+        <v>4709</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.002015872562368941</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01013494765714695</v>
+        <v>0.01020271734482901</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1</v>
@@ -4082,16 +4082,16 @@
         <v>0</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>4652</v>
+        <v>5631</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.0008843151521077153</v>
+        <v>0.0008843151521077151</v>
       </c>
       <c r="V56" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.004421819552404598</v>
+        <v>0.005352201951799522</v>
       </c>
     </row>
     <row r="57">
@@ -4108,19 +4108,19 @@
         <v>44523</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>33052</v>
+        <v>33071</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>61047</v>
+        <v>59373</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.0753963455116204</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.05597024146420261</v>
+        <v>0.05600335058806051</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1033783155727755</v>
+        <v>0.1005423135195599</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>92</v>
@@ -4129,19 +4129,19 @@
         <v>51019</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>40915</v>
+        <v>41170</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>61783</v>
+        <v>61844</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.1105509415555166</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.08865658672730053</v>
+        <v>0.08921092066276136</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.1338763460000593</v>
+        <v>0.134007802642377</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>142</v>
@@ -4150,19 +4150,19 @@
         <v>95542</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>80923</v>
+        <v>79885</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>113045</v>
+        <v>113587</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.09081782727002617</v>
+        <v>0.09081782727002616</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.07692174614288017</v>
+        <v>0.07593526885431441</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.1074557399038356</v>
+        <v>0.1079700695265528</v>
       </c>
     </row>
     <row r="58">
@@ -4179,19 +4179,19 @@
         <v>3195</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>9017</v>
+        <v>9359</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.005410873277176863</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.001296745179784859</v>
+        <v>0.001285681888586176</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.01527017943399724</v>
+        <v>0.01584846025485559</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>3</v>
@@ -4200,19 +4200,19 @@
         <v>2055</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>5450</v>
+        <v>5738</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.004452395400405381</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.001339838790568989</v>
+        <v>0.001330930704926549</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.01180892322325026</v>
+        <v>0.01243331410675861</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>6</v>
@@ -4221,19 +4221,19 @@
         <v>5250</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>2040</v>
+        <v>2080</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>11795</v>
+        <v>11273</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.004990411922024033</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.001939484398275361</v>
+        <v>0.00197725446896809</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.01121200044748016</v>
+        <v>0.01071539812587749</v>
       </c>
     </row>
     <row r="59">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>4046</v>
+        <v>4076</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.001743063934306891</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.00876742508041118</v>
+        <v>0.008831908963531209</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>1</v>
@@ -4287,16 +4287,16 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>4103</v>
+        <v>4066</v>
       </c>
       <c r="U59" s="6" t="n">
-        <v>0.0007646405219130925</v>
+        <v>0.0007646405219130924</v>
       </c>
       <c r="V59" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.003899836151104081</v>
+        <v>0.00386518205880379</v>
       </c>
     </row>
     <row r="60">
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>4737</v>
+        <v>4719</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.002955284339744686</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.01026348570796852</v>
+        <v>0.01022586544549683</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>2</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>5020</v>
+        <v>4855</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.00129641266477269</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.004771619589690078</v>
+        <v>0.004615016985641493</v>
       </c>
     </row>
     <row r="61">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>7922</v>
+        <v>6617</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.003389382729661529</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.01341605782418914</v>
+        <v>0.01120510931180846</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>0</v>
@@ -4413,16 +4413,16 @@
         <v>0</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>6383</v>
+        <v>7605</v>
       </c>
       <c r="U61" s="6" t="n">
-        <v>0.001902541467925392</v>
+        <v>0.001902541467925391</v>
       </c>
       <c r="V61" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.006067170398435847</v>
+        <v>0.007229050834865926</v>
       </c>
     </row>
     <row r="62">
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>14531</v>
+        <v>13491</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.004465484057329431</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.02460727351490313</v>
+        <v>0.02284643314543787</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>0</v>
@@ -4476,16 +4476,16 @@
         <v>0</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>14899</v>
+        <v>13141</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.002506582841494969</v>
+        <v>0.002506582841494968</v>
       </c>
       <c r="V62" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.01416247485409883</v>
+        <v>0.01249141224061702</v>
       </c>
     </row>
     <row r="63">
@@ -4502,19 +4502,19 @@
         <v>14523</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>7444</v>
+        <v>7611</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>25889</v>
+        <v>26118</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.02459321001388773</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.01260634635964783</v>
+        <v>0.01288881811774158</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.04384019402425397</v>
+        <v>0.04422820426205671</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>14</v>
@@ -4523,19 +4523,19 @@
         <v>10598</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>5930</v>
+        <v>6079</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>17380</v>
+        <v>16912</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.02296522807974425</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.01284913512210803</v>
+        <v>0.01317271265472622</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.03766028882336157</v>
+        <v>0.03664602536714623</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>25</v>
@@ -4544,19 +4544,19 @@
         <v>25121</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>16892</v>
+        <v>16205</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>37017</v>
+        <v>39444</v>
       </c>
       <c r="U63" s="6" t="n">
-        <v>0.02387905321717589</v>
+        <v>0.02387905321717588</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.01605706086748263</v>
+        <v>0.01540387624973096</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.03518697054472502</v>
+        <v>0.0374934542155236</v>
       </c>
     </row>
     <row r="64">
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>4831</v>
+        <v>7581</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.001994528101748621</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.008180356140930177</v>
+        <v>0.01283735638756113</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>3495</v>
+        <v>3486</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.001509961794615596</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.007573459136718842</v>
+        <v>0.007554458113657432</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>2</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>6180</v>
+        <v>6377</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.001781960434725536</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.005874463113894501</v>
+        <v>0.006061488875304825</v>
       </c>
     </row>
     <row r="65">
@@ -4644,19 +4644,19 @@
         <v>38030</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>25553</v>
+        <v>25841</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>54638</v>
+        <v>55144</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>0.06440054109286042</v>
+        <v>0.06440054109286041</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.04327192532165266</v>
+        <v>0.0437599672514551</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.09252520955193011</v>
+        <v>0.09338212823535223</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>29</v>
@@ -4665,19 +4665,19 @@
         <v>21270</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>14025</v>
+        <v>14506</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>30625</v>
+        <v>30979</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.04609024604896703</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.03039022830271413</v>
+        <v>0.03143234235411042</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.06636129715669364</v>
+        <v>0.06712824559977058</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>59</v>
@@ -4686,19 +4686,19 @@
         <v>59300</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>45548</v>
+        <v>44266</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>76683</v>
+        <v>76802</v>
       </c>
       <c r="U65" s="6" t="n">
-        <v>0.05636825192481415</v>
+        <v>0.05636825192481414</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.04329625695208683</v>
+        <v>0.04207716513688227</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.07289127178197538</v>
+        <v>0.07300475068228614</v>
       </c>
     </row>
     <row r="66">
@@ -4715,19 +4715,19 @@
         <v>5462</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>1900</v>
+        <v>2112</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>11988</v>
+        <v>12241</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.009249014688762401</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.003217959330946324</v>
+        <v>0.003576772367344552</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.02030055828054415</v>
+        <v>0.02072991645023602</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>2</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>12269</v>
+        <v>14948</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.006520000870583448</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.02658552728471913</v>
+        <v>0.03239055917424695</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>7</v>
@@ -4757,19 +4757,19 @@
         <v>8471</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>3374</v>
+        <v>3750</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>19286</v>
+        <v>18812</v>
       </c>
       <c r="U66" s="6" t="n">
-        <v>0.008051861498239788</v>
+        <v>0.008051861498239787</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.003207141957667325</v>
+        <v>0.003564775677347816</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.01833235428813018</v>
+        <v>0.01788169405610727</v>
       </c>
     </row>
     <row r="67">
@@ -4786,19 +4786,19 @@
         <v>16289</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>9716</v>
+        <v>8809</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>28606</v>
+        <v>27033</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.02758471881534057</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.01645285633364237</v>
+        <v>0.01491807539743906</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.04844260564126605</v>
+        <v>0.04577792899424775</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>18</v>
@@ -4807,19 +4807,19 @@
         <v>17621</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>10484</v>
+        <v>10366</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>27998</v>
+        <v>28054</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.03818144135464432</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.02271782386565569</v>
+        <v>0.02246202082575795</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.06066857008746464</v>
+        <v>0.06078923355208821</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>32</v>
@@ -4828,19 +4828,19 @@
         <v>33910</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>23420</v>
+        <v>23433</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>48078</v>
+        <v>49113</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.03223324793326039</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.02226148824742891</v>
+        <v>0.02227397766890525</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.04570113776127723</v>
+        <v>0.04668472391903418</v>
       </c>
     </row>
     <row r="68">
@@ -4857,19 +4857,19 @@
         <v>383557</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>356632</v>
+        <v>359604</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>407987</v>
+        <v>408521</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.6495201368847465</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.6039255105821717</v>
+        <v>0.608958266615923</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.6908909719645596</v>
+        <v>0.69179458140598</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>336</v>
@@ -4878,19 +4878,19 @@
         <v>251933</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>231536</v>
+        <v>233183</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>270728</v>
+        <v>269447</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.5459053830273415</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.5017072738987834</v>
+        <v>0.505276084421295</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.5866318506909483</v>
+        <v>0.5838565785810087</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>665</v>
@@ -4899,19 +4899,19 @@
         <v>635490</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>603200</v>
+        <v>605817</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>669125</v>
+        <v>668247</v>
       </c>
       <c r="U68" s="6" t="n">
-        <v>0.604066818788915</v>
+        <v>0.6040668187889148</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.5733739938177652</v>
+        <v>0.5758617086677905</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.6360391085692644</v>
+        <v>0.6352041048414504</v>
       </c>
     </row>
     <row r="69">
@@ -4928,19 +4928,19 @@
         <v>6467</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>2774</v>
+        <v>2785</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>12551</v>
+        <v>14075</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.0109511426107519</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.004697052602840352</v>
+        <v>0.004715733934297884</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.02125355760871583</v>
+        <v>0.02383537096521792</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>7</v>
@@ -4949,19 +4949,19 @@
         <v>5097</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>2312</v>
+        <v>2256</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>10794</v>
+        <v>9878</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.01104393203955977</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.005010526291801097</v>
+        <v>0.00488912418106957</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.02338845690548286</v>
+        <v>0.02140380563409457</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>14</v>
@@ -4970,19 +4970,19 @@
         <v>11564</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>6467</v>
+        <v>6643</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>18797</v>
+        <v>19194</v>
       </c>
       <c r="U69" s="6" t="n">
-        <v>0.01099184711726783</v>
+        <v>0.01099184711726782</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.006146907023004642</v>
+        <v>0.006314665625202676</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.01786779546201602</v>
+        <v>0.01824531373570835</v>
       </c>
     </row>
     <row r="70">
@@ -4999,19 +4999,19 @@
         <v>71223</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>55385</v>
+        <v>56393</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>90258</v>
+        <v>90482</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.1206102809435277</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.09378903565164996</v>
+        <v>0.0954972940954998</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.1528443690238393</v>
+        <v>0.1532234345151318</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>137</v>
@@ -5020,19 +5020,19 @@
         <v>95099</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>79388</v>
+        <v>80786</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>110435</v>
+        <v>111405</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.2060662489922017</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.1720227168855435</v>
+        <v>0.1750531116064572</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.2392988926781841</v>
+        <v>0.2413999168204445</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>204</v>
@@ -5041,19 +5041,19 @@
         <v>166322</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>142855</v>
+        <v>145390</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>190804</v>
+        <v>190616</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.1580977733545904</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.1357912519316034</v>
+        <v>0.1382007095384004</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.1813694322609716</v>
+        <v>0.1811907480195193</v>
       </c>
     </row>
     <row r="71">
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>7276</v>
+        <v>7173</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.0007563740740932113</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.003828341467178885</v>
+        <v>0.003773922225468461</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>6563</v>
+        <v>6088</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.0004251370006245642</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.001940886612433529</v>
+        <v>0.001800540446581983</v>
       </c>
     </row>
     <row r="73">
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>3777</v>
+        <v>4593</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.0004862463883094537</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.0019871456271325</v>
+        <v>0.002416546558224238</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>4591</v>
+        <v>3761</v>
       </c>
       <c r="N73" s="6" t="n">
         <v>0.0006282589504462656</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.00310067190592323</v>
+        <v>0.002539717124797738</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>2</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>6493</v>
+        <v>5601</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.0005484376070319835</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.001920312091172908</v>
+        <v>0.001656351365498816</v>
       </c>
     </row>
     <row r="74">
@@ -5279,19 +5279,19 @@
         <v>105956</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>87635</v>
+        <v>87297</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>127109</v>
+        <v>129301</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.05575002829452824</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.04611013664436058</v>
+        <v>0.04593247999089104</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.06687983874166162</v>
+        <v>0.06803295986763892</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>198</v>
@@ -5300,19 +5300,19 @@
         <v>123988</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>107302</v>
+        <v>108766</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>142773</v>
+        <v>143242</v>
       </c>
       <c r="N74" s="6" t="n">
-        <v>0.08373113862836423</v>
+        <v>0.08373113862836422</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.07246278027720145</v>
+        <v>0.07345149377887847</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.0964172887466046</v>
+        <v>0.09673390844957924</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>312</v>
@@ -5321,19 +5321,19 @@
         <v>229944</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>205441</v>
+        <v>202493</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>259193</v>
+        <v>260351</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.06800372843687469</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.0607573032247109</v>
+        <v>0.05988535839260421</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.0766537358991537</v>
+        <v>0.07699618559892675</v>
       </c>
     </row>
     <row r="75">
@@ -5350,19 +5350,19 @@
         <v>52749</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>38868</v>
+        <v>38133</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>70356</v>
+        <v>69951</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.02775468947716538</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.0204505916885028</v>
+        <v>0.02006433502861593</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.03701866640987072</v>
+        <v>0.03680534659356032</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>65</v>
@@ -5371,19 +5371,19 @@
         <v>54607</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>43600</v>
+        <v>43015</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>68932</v>
+        <v>69520</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.03687726511614072</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.02944383606794475</v>
+        <v>0.02904887028453209</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.04655071134894482</v>
+        <v>0.04694783502840775</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>110</v>
@@ -5392,19 +5392,19 @@
         <v>107357</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>88036</v>
+        <v>89924</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>128964</v>
+        <v>131593</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.03174971701796682</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.02603578071352759</v>
+        <v>0.02659427167328703</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.03813997352596754</v>
+        <v>0.03891723184561698</v>
       </c>
     </row>
     <row r="76">
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>8859</v>
+        <v>8913</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.0009936136276135887</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.004661051185559747</v>
+        <v>0.004689440284266291</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>4050</v>
+        <v>4482</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.000543236481497367</v>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.002735022160923107</v>
+        <v>0.003026766447466201</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>2</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>12407</v>
+        <v>10237</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.0007963810505774881</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.003669201185561091</v>
+        <v>0.003027444282432851</v>
       </c>
     </row>
     <row r="77">
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>4822</v>
+        <v>4717</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.0009210323470926203</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.003256145310060082</v>
+        <v>0.003185312562183621</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>2</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>4144</v>
+        <v>4139</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.0004033454737150633</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.001225616679997377</v>
+        <v>0.001223986358968963</v>
       </c>
     </row>
     <row r="78">
@@ -5555,19 +5555,19 @@
         <v>4687</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>1821</v>
+        <v>1780</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>10874</v>
+        <v>10754</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.002466088024860362</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.0009580029227335554</v>
+        <v>0.0009363222915012113</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.005721491685161503</v>
+        <v>0.005658580842737179</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>0</v>
@@ -5589,19 +5589,19 @@
         <v>4687</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>11522</v>
+        <v>10544</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.00138612004572236</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.0005212059631540334</v>
+        <v>0.0005183910074333755</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.003407468943547193</v>
+        <v>0.003118261459228431</v>
       </c>
     </row>
     <row r="79">
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>13540</v>
+        <v>13183</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.001387470363041067</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.007124215742555357</v>
+        <v>0.006936385509315031</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>1</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>3380</v>
+        <v>3428</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.0004884084033790522</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.002282263491173982</v>
+        <v>0.002315053526006297</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>2</v>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>15943</v>
+        <v>15248</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.0009937463280885771</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.004714986081356845</v>
+        <v>0.004509301588236101</v>
       </c>
     </row>
     <row r="80">
@@ -5689,19 +5689,19 @@
         <v>41276</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>28518</v>
+        <v>28183</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>59113</v>
+        <v>57284</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.0217175791808125</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.01500525948996655</v>
+        <v>0.01482854717129784</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.03110276659172561</v>
+        <v>0.03014037426073133</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>49</v>
@@ -5710,19 +5710,19 @@
         <v>38810</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>29614</v>
+        <v>28729</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>51894</v>
+        <v>52191</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.02620917996798452</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.01999912097156781</v>
+        <v>0.01940127544004254</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.03504496942726473</v>
+        <v>0.03524537217814405</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>82</v>
@@ -5731,19 +5731,19 @@
         <v>80086</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>63209</v>
+        <v>62524</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>103017</v>
+        <v>100327</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.02368457507727548</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.01869330898153666</v>
+        <v>0.01849097020561075</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.03046625265038996</v>
+        <v>0.0296705869304055</v>
       </c>
     </row>
     <row r="81">
@@ -5760,19 +5760,19 @@
         <v>7780</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>2975</v>
+        <v>3277</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>16290</v>
+        <v>16288</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.004093681092599253</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.001565373497787715</v>
+        <v>0.001724342985691329</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.008571160660947144</v>
+        <v>0.008570085042445254</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>5</v>
@@ -5781,19 +5781,19 @@
         <v>4612</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>1367</v>
+        <v>1459</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>10990</v>
+        <v>10770</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.003114311038745324</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.0009229242743315721</v>
+        <v>0.0009854644195697294</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.007421969503430124</v>
+        <v>0.007273503550709038</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>11</v>
@@ -5802,19 +5802,19 @@
         <v>12392</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>6661</v>
+        <v>6232</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>23017</v>
+        <v>22086</v>
       </c>
       <c r="U81" s="6" t="n">
-        <v>0.003664787927705517</v>
+        <v>0.003664787927705516</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.001970000036951504</v>
+        <v>0.001843163832816827</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.006807116144324226</v>
+        <v>0.006531738133630297</v>
       </c>
     </row>
     <row r="82">
@@ -5831,19 +5831,19 @@
         <v>82649</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>63829</v>
+        <v>63983</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>105723</v>
+        <v>104551</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.04348659767284609</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.03358416114405138</v>
+        <v>0.03366551618241928</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.05562738899590908</v>
+        <v>0.05501075073513204</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>79</v>
@@ -5852,19 +5852,19 @@
         <v>59238</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>46729</v>
+        <v>46294</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>73704</v>
+        <v>73119</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.04000436775531932</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.03155674087548259</v>
+        <v>0.03126342244781474</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.04977342197151693</v>
+        <v>0.04937838738359328</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>144</v>
@@ -5873,19 +5873,19 @@
         <v>141887</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>118640</v>
+        <v>118296</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>167444</v>
+        <v>166998</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.04196163312615753</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.03508676474775779</v>
+        <v>0.03498480821227975</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.04951998036467092</v>
+        <v>0.0493881116899545</v>
       </c>
     </row>
     <row r="83">
@@ -5902,19 +5902,19 @@
         <v>11499</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>6098</v>
+        <v>5788</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>20981</v>
+        <v>19743</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.006050125547269149</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.003208641572165699</v>
+        <v>0.003045417330035719</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.01103932108034044</v>
+        <v>0.01038785045410953</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>7</v>
@@ -5923,19 +5923,19 @@
         <v>8333</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>3339</v>
+        <v>3297</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>16762</v>
+        <v>17197</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.005627730048147504</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.002255046941656096</v>
+        <v>0.002226856847231928</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.01131986835726123</v>
+        <v>0.01161366151239391</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>18</v>
@@ -5944,19 +5944,19 @@
         <v>19832</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>11783</v>
+        <v>11423</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>32259</v>
+        <v>31552</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.005865146905393939</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.003484674691354152</v>
+        <v>0.003378288554382169</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.009540200648965954</v>
+        <v>0.009331074389605893</v>
       </c>
     </row>
     <row r="84">
@@ -5973,19 +5973,19 @@
         <v>60177</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>45186</v>
+        <v>45108</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>78802</v>
+        <v>79890</v>
       </c>
       <c r="G84" s="6" t="n">
         <v>0.03166283119441161</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.023774916375394</v>
+        <v>0.02373378575776326</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.0414626782797508</v>
+        <v>0.04203473068029061</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>86</v>
@@ -5994,19 +5994,19 @@
         <v>73129</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>60045</v>
+        <v>57520</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>90190</v>
+        <v>90002</v>
       </c>
       <c r="N84" s="6" t="n">
         <v>0.04938514580833424</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.04054926259990781</v>
+        <v>0.03884421100516621</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.06090711953666569</v>
+        <v>0.06078008178805006</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>137</v>
@@ -6015,19 +6015,19 @@
         <v>133306</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>109653</v>
+        <v>112853</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>156820</v>
+        <v>158173</v>
       </c>
       <c r="U84" s="6" t="n">
         <v>0.0394239216771123</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.0324286842000023</v>
+        <v>0.03337505587101056</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.04637792352116347</v>
+        <v>0.04677815245625536</v>
       </c>
     </row>
     <row r="85">
@@ -6044,19 +6044,19 @@
         <v>1233488</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1186281</v>
+        <v>1187665</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>1276768</v>
+        <v>1283780</v>
       </c>
       <c r="G85" s="6" t="n">
         <v>0.6490123740189516</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.6241738950476327</v>
+        <v>0.6249021152495241</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.6717848257010831</v>
+        <v>0.6754740998069152</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>984</v>
@@ -6065,19 +6065,19 @@
         <v>739384</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>702653</v>
+        <v>705581</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>771546</v>
+        <v>775796</v>
       </c>
       <c r="N85" s="6" t="n">
         <v>0.4993191182948535</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.4745141447583544</v>
+        <v>0.4764914137309346</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.5210383919696481</v>
+        <v>0.5239084929912714</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>2044</v>
@@ -6086,19 +6086,19 @@
         <v>1972872</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>1911022</v>
+        <v>1912477</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>2030063</v>
+        <v>2028297</v>
       </c>
       <c r="U85" s="6" t="n">
         <v>0.5834575676838873</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.5651660769417144</v>
+        <v>0.5655963082547322</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.6003714195422896</v>
+        <v>0.5998489883653469</v>
       </c>
     </row>
     <row r="86">
@@ -6115,19 +6115,19 @@
         <v>28337</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>17358</v>
+        <v>17402</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>46145</v>
+        <v>46798</v>
       </c>
       <c r="G86" s="6" t="n">
         <v>0.01490961067415738</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.009133167139470755</v>
+        <v>0.009156418120950482</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.02427949692590702</v>
+        <v>0.02462301184759418</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>18</v>
@@ -6136,19 +6136,19 @@
         <v>13939</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>8110</v>
+        <v>8079</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>21312</v>
+        <v>21317</v>
       </c>
       <c r="N86" s="6" t="n">
-        <v>0.009413463624992874</v>
+        <v>0.009413463624992876</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.005476858084800921</v>
+        <v>0.005455624959413159</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.01439256478369751</v>
+        <v>0.01439593203533869</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>38</v>
@@ -6157,19 +6157,19 @@
         <v>42276</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>29824</v>
+        <v>30364</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>62594</v>
+        <v>61562</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.0125026962567097</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.008820268819627582</v>
+        <v>0.008979881467596098</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.01851159328536895</v>
+        <v>0.0182064284938715</v>
       </c>
     </row>
     <row r="87">
@@ -6186,19 +6186,19 @@
         <v>265076</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>231329</v>
+        <v>233375</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>300063</v>
+        <v>305009</v>
       </c>
       <c r="G87" s="6" t="n">
         <v>0.1394726903693411</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.121716051465334</v>
+        <v>0.122792578287141</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.1578811145272991</v>
+        <v>0.1604838764955051</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>488</v>
@@ -6207,19 +6207,19 @@
         <v>360923</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>332969</v>
+        <v>331819</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>390549</v>
+        <v>392407</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.2437373435347023</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.2248597401565104</v>
+        <v>0.2240832313259445</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.2637448810866774</v>
+        <v>0.2649992099199274</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>711</v>
@@ -6228,19 +6228,19 @@
         <v>625999</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>583675</v>
+        <v>584759</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>673989</v>
+        <v>675713</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.1851330583851566</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.1726160834269895</v>
+        <v>0.1729368810180321</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.1993256057358553</v>
+        <v>0.1998355707237623</v>
       </c>
     </row>
     <row r="88">
